--- a/LFK_Auswertung/raw_data/LFK_Messprotokolle.xlsx
+++ b/LFK_Auswertung/raw_data/LFK_Messprotokolle.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Janjo/Library/Mobile Documents/iCloud~md~obsidian/Documents/ETH/PPC_Meister/ppc_skripts_reports/LFK_Auswertung/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF60965-FF4B-CD42-B875-4D7EFFB4C17D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F2B1F1D-EE8A-5045-B949-09EFEFC60EE2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="6" xr2:uid="{7A720E7D-8133-ED4F-A360-5A7C09767869}"/>
+    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="3" xr2:uid="{7A720E7D-8133-ED4F-A360-5A7C09767869}"/>
   </bookViews>
   <sheets>
     <sheet name="H2O_deion." sheetId="1" r:id="rId1"/>
     <sheet name="H2O_trink" sheetId="7" r:id="rId2"/>
     <sheet name="H2O_reinst" sheetId="8" r:id="rId3"/>
-    <sheet name="Temp. abhängig" sheetId="2" r:id="rId4"/>
+    <sheet name="temperatur" sheetId="2" r:id="rId4"/>
     <sheet name="molar LFK_K2CO3" sheetId="3" r:id="rId5"/>
     <sheet name="Konz. abhängig" sheetId="4" r:id="rId6"/>
     <sheet name="LFK_titration" sheetId="6" r:id="rId7"/>
@@ -115,7 +115,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -258,7 +258,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Temp. abhängig'!$A$2:$A$27</c:f>
+              <c:f>temperatur!$A$2:$A$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -345,7 +345,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Temp. abhängig'!$B$2:$B$27</c:f>
+              <c:f>temperatur!$B$2:$B$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -2657,13 +2657,13 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="1" width="22.5" style="1" customWidth="1"/>
     <col min="2" max="16384" width="15.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -2671,7 +2671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="1">
         <v>2.84</v>
       </c>
@@ -2679,7 +2679,7 @@
         <v>17.2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="1">
         <v>2.9</v>
       </c>
@@ -2687,7 +2687,7 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="1">
         <v>2.8</v>
       </c>
@@ -2706,13 +2706,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="1" width="23.5" style="1" customWidth="1"/>
     <col min="2" max="16384" width="15.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -2720,7 +2720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="1">
         <v>289.5</v>
       </c>
@@ -2728,7 +2728,7 @@
         <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="1">
         <v>281.10000000000002</v>
       </c>
@@ -2736,7 +2736,7 @@
         <v>17.7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="1">
         <v>278.5</v>
       </c>
@@ -2755,13 +2755,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="1" width="23.6640625" style="1" customWidth="1"/>
     <col min="2" max="16384" width="15.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -2769,7 +2769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2777,7 +2777,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="1">
         <v>1.2</v>
       </c>
@@ -2785,7 +2785,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="1">
         <v>0.97</v>
       </c>
@@ -2793,7 +2793,7 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="2"/>
     </row>
   </sheetData>
@@ -2805,18 +2805,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6BA2F4E-A981-7947-A35A-D61C51A0BE4D}">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="1" width="15.83203125" style="1"/>
     <col min="2" max="2" width="18.33203125" style="1" customWidth="1"/>
     <col min="3" max="16384" width="15.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -2824,7 +2824,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="1">
         <v>50</v>
       </c>
@@ -2832,7 +2832,7 @@
         <v>30.15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="1">
         <v>49</v>
       </c>
@@ -2840,7 +2840,7 @@
         <v>29.69</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="1">
         <v>48</v>
       </c>
@@ -2848,7 +2848,7 @@
         <v>29.28</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="1">
         <v>47</v>
       </c>
@@ -2856,7 +2856,7 @@
         <v>28.84</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="1">
         <v>46</v>
       </c>
@@ -2864,7 +2864,7 @@
         <v>28.43</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="1">
         <v>45</v>
       </c>
@@ -2872,7 +2872,7 @@
         <v>27.97</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="1">
         <v>44</v>
       </c>
@@ -2880,7 +2880,7 @@
         <v>27.55</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="1">
         <v>43</v>
       </c>
@@ -2888,7 +2888,7 @@
         <v>27.12</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="1">
         <v>42</v>
       </c>
@@ -2896,7 +2896,7 @@
         <v>26.69</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" s="1">
         <v>41</v>
       </c>
@@ -2904,7 +2904,7 @@
         <v>26.26</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" s="1">
         <v>40</v>
       </c>
@@ -2912,7 +2912,7 @@
         <v>25.84</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" s="1">
         <v>39</v>
       </c>
@@ -2920,7 +2920,7 @@
         <v>25.43</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" s="1">
         <v>38</v>
       </c>
@@ -2928,7 +2928,7 @@
         <v>24.98</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" s="1">
         <v>37</v>
       </c>
@@ -2936,7 +2936,7 @@
         <v>24.57</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" s="1">
         <v>36</v>
       </c>
@@ -2944,7 +2944,7 @@
         <v>24.17</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="1">
         <v>35</v>
       </c>
@@ -2952,7 +2952,7 @@
         <v>23.74</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="1">
         <v>34</v>
       </c>
@@ -2960,7 +2960,7 @@
         <v>23.34</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="1">
         <v>33</v>
       </c>
@@ -2968,7 +2968,7 @@
         <v>22.92</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="1">
         <v>32</v>
       </c>
@@ -2976,7 +2976,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="1">
         <v>31</v>
       </c>
@@ -2984,7 +2984,7 @@
         <v>22.1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="1">
         <v>30</v>
       </c>
@@ -2992,7 +2992,7 @@
         <v>21.67</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" s="1">
         <v>29</v>
       </c>
@@ -3000,7 +3000,7 @@
         <v>21.28</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" s="1">
         <v>28</v>
       </c>
@@ -3008,7 +3008,7 @@
         <v>20.86</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" s="1">
         <v>27</v>
       </c>
@@ -3016,7 +3016,7 @@
         <v>20.46</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" s="1">
         <v>26</v>
       </c>
@@ -3024,7 +3024,7 @@
         <v>20.07</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -3046,7 +3046,7 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="1" width="24.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="23.5" style="1" customWidth="1"/>
@@ -3059,7 +3059,7 @@
     <col min="10" max="16384" width="15.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -3091,7 +3091,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -3125,7 +3125,7 @@
         <v>17.899999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -3159,7 +3159,7 @@
         <v>17.899999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -3206,7 +3206,7 @@
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="2" width="15.83203125" style="1"/>
     <col min="3" max="3" width="23.6640625" style="1" customWidth="1"/>
@@ -3215,7 +3215,7 @@
     <col min="6" max="16384" width="15.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -3238,7 +3238,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>100</v>
       </c>
@@ -3260,7 +3260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <f>$A$2+B3</f>
         <v>100.5</v>
@@ -3288,7 +3288,7 @@
         <v>2972.2772277227723</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A42" si="0">$A$2+B4</f>
         <v>101</v>
@@ -3316,7 +3316,7 @@
         <v>2693.0693069306931</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>101.5</v>
@@ -3344,7 +3344,7 @@
         <v>2600.660066006601</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>102</v>
@@ -3372,7 +3372,7 @@
         <v>2802.4752475247524</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>102.5</v>
@@ -3400,7 +3400,7 @@
         <v>2411.8811881188121</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>103</v>
@@ -3428,7 +3428,7 @@
         <v>2364.3564356435645</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>103.5</v>
@@ -3456,7 +3456,7 @@
         <v>2190.9476661951912</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>104</v>
@@ -3484,7 +3484,7 @@
         <v>2249.7524752475247</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>104.5</v>
@@ -3512,7 +3512,7 @@
         <v>2228.8228822882288</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>105</v>
@@ -3540,7 +3540,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>105.5</v>
@@ -3568,7 +3568,7 @@
         <v>2167.4167416741675</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>106</v>
@@ -3596,7 +3596,7 @@
         <v>2143.5643564356437</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>106.5</v>
@@ -3624,7 +3624,7 @@
         <v>2115.7654226961158</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>107</v>
@@ -3652,7 +3652,7 @@
         <v>2097.5954738330979</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>107.5</v>
@@ -3680,7 +3680,7 @@
         <v>2077.8877887788781</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>108</v>
@@ -3708,7 +3708,7 @@
         <v>2053.2178217821784</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>108.5</v>
@@ -3736,7 +3736,7 @@
         <v>2029.1205591147345</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>109</v>
@@ -3764,7 +3764,7 @@
         <v>2011.0011001100113</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>109.5</v>
@@ -3792,7 +3792,7 @@
         <v>1992.7045336112556</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>110</v>
@@ -3820,7 +3820,7 @@
         <v>1979.2079207920794</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
         <f t="shared" si="0"/>
         <v>110.5</v>
@@ -3848,7 +3848,7 @@
         <v>1972.6544082979724</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
         <f t="shared" si="0"/>
         <v>111</v>
@@ -3876,7 +3876,7 @@
         <v>1950.4950495049507</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="1">
         <f t="shared" si="0"/>
         <v>111.5</v>
@@ -3904,7 +3904,7 @@
         <v>1938.01119242359</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="1">
         <f t="shared" si="0"/>
         <v>112</v>
@@ -3932,7 +3932,7 @@
         <v>1917.4917491749177</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" s="1">
         <f t="shared" si="0"/>
         <v>112.5</v>
@@ -3960,7 +3960,7 @@
         <v>1906.5346534653465</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" s="1">
         <f t="shared" si="0"/>
         <v>113</v>
@@ -3988,7 +3988,7 @@
         <v>1895.6587966488958</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" s="1">
         <f t="shared" si="0"/>
         <v>113.5</v>
@@ -4016,7 +4016,7 @@
         <v>1879.7213054638798</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" s="1">
         <f t="shared" si="0"/>
         <v>114</v>
@@ -4044,7 +4044,7 @@
         <v>1868.4582743988683</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" s="1">
         <f t="shared" si="0"/>
         <v>114.5</v>
@@ -4072,7 +4072,7 @@
         <v>1856.6063502902014</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" s="1">
         <f t="shared" si="0"/>
         <v>115</v>
@@ -4100,7 +4100,7 @@
         <v>1842.2442244224424</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" s="1">
         <f t="shared" si="0"/>
         <v>115.5</v>
@@ -4128,7 +4128,7 @@
         <v>1830.0862344298946</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" s="1">
         <f t="shared" si="0"/>
         <v>116</v>
@@ -4156,7 +4156,7 @@
         <v>1820.5445544554455</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35" s="1">
         <f t="shared" si="0"/>
         <v>116.5</v>
@@ -4184,7 +4184,7 @@
         <v>1810.9810981098112</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36" s="1">
         <f t="shared" si="0"/>
         <v>117</v>
@@ -4212,7 +4212,7 @@
         <v>1797.3209085614444</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37" s="1">
         <f t="shared" si="0"/>
         <v>117.5</v>
@@ -4240,7 +4240,7 @@
         <v>1787.8359264497876</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" s="1">
         <f t="shared" si="0"/>
         <v>118</v>
@@ -4268,7 +4268,7 @@
         <v>1777.2277227722775</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39" s="1">
         <f t="shared" si="0"/>
         <v>118.5</v>
@@ -4296,7 +4296,7 @@
         <v>1770.4040674337705</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40" s="1">
         <f t="shared" si="0"/>
         <v>119</v>
@@ -4324,7 +4324,7 @@
         <v>1755.0807712350181</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="A41" s="1">
         <f t="shared" si="0"/>
         <v>119.5</v>
@@ -4352,7 +4352,7 @@
         <v>1748.1594313277481</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42" s="1">
         <f t="shared" si="0"/>
         <v>120</v>
@@ -4389,16 +4389,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C848A47-1F08-A24C-8B6B-FB3E2BE62763}">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" workbookViewId="0">
+    <sheetView zoomScale="69" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="16384" width="15.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4409,7 +4409,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="4">
         <v>2.2469999999999999</v>
       </c>
@@ -4420,7 +4420,7 @@
         <v>20.2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="4">
         <v>2.266</v>
       </c>
@@ -4431,7 +4431,7 @@
         <v>20.2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="4">
         <v>2.2490000000000001</v>
       </c>
@@ -4439,7 +4439,7 @@
         <v>1.048</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="4">
         <v>2.254</v>
       </c>
@@ -4447,7 +4447,7 @@
         <v>1.742</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="4">
         <v>2.2610000000000001</v>
       </c>
@@ -4455,7 +4455,7 @@
         <v>2.028</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="4">
         <v>2.2599999999999998</v>
       </c>
@@ -4463,7 +4463,7 @@
         <v>2.4940000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="4">
         <v>2.2650000000000001</v>
       </c>
@@ -4471,7 +4471,7 @@
         <v>2.996</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="4">
         <v>2.262</v>
       </c>
@@ -4479,7 +4479,7 @@
         <v>3.492</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="4">
         <v>2.2629999999999999</v>
       </c>
@@ -4487,7 +4487,7 @@
         <v>4.016</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="4">
         <v>2.2639999999999998</v>
       </c>
@@ -4495,7 +4495,7 @@
         <v>4.5659999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="4">
         <v>2.266</v>
       </c>
@@ -4503,7 +4503,7 @@
         <v>5.0540000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="4">
         <v>2.2730000000000001</v>
       </c>
@@ -4511,7 +4511,7 @@
         <v>5.77</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="4">
         <v>2.27</v>
       </c>
@@ -4519,7 +4519,7 @@
         <v>6.0259999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="4">
         <v>2.2719999999999998</v>
       </c>
@@ -4527,7 +4527,7 @@
         <v>6.5460000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="4">
         <v>2.2749999999999999</v>
       </c>
@@ -4535,7 +4535,7 @@
         <v>7.0119999999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="4">
         <v>2.2759999999999998</v>
       </c>
@@ -4543,7 +4543,7 @@
         <v>8.0459999999999994</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="4">
         <v>2.2839999999999998</v>
       </c>
@@ -4551,7 +4551,7 @@
         <v>8.5359999999999996</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="4">
         <v>2.302</v>
       </c>
@@ -4559,7 +4559,7 @@
         <v>9.0239999999999991</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="4">
         <v>2.3370000000000002</v>
       </c>
@@ -4567,7 +4567,7 @@
         <v>9.5359999999999996</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="4">
         <v>2.3889999999999998</v>
       </c>
@@ -4575,7 +4575,7 @@
         <v>10.002000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="4">
         <v>2.4630000000000001</v>
       </c>
@@ -4583,7 +4583,7 @@
         <v>10.53</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" s="4">
         <v>2.5329999999999999</v>
       </c>
@@ -4591,7 +4591,7 @@
         <v>10.994</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" s="4">
         <v>2.6219999999999999</v>
       </c>
@@ -4599,7 +4599,7 @@
         <v>11.561999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" s="4">
         <v>2.6920000000000002</v>
       </c>
@@ -4607,7 +4607,7 @@
         <v>11.997999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" s="4">
         <v>2.77</v>
       </c>
@@ -4615,7 +4615,7 @@
         <v>12.522</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" s="4">
         <v>2.851</v>
       </c>
@@ -4623,7 +4623,7 @@
         <v>13.03</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" s="4">
         <v>2.931</v>
       </c>
@@ -4631,7 +4631,7 @@
         <v>13.564</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="A29" s="4">
         <v>3.0019999999999998</v>
       </c>
@@ -4639,7 +4639,7 @@
         <v>14.032</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2">
       <c r="A30" s="4">
         <v>3.081</v>
       </c>
@@ -4647,7 +4647,7 @@
         <v>14.56</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2">
       <c r="A31" s="4">
         <v>3.1440000000000001</v>
       </c>
@@ -4655,7 +4655,7 @@
         <v>15.006</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2">
       <c r="A32" s="4">
         <v>3.2370000000000001</v>
       </c>
@@ -4663,7 +4663,7 @@
         <v>15.561999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="A33" s="4">
         <v>3.302</v>
       </c>
@@ -4671,7 +4671,7 @@
         <v>16.052</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2">
       <c r="A34" s="4">
         <v>3.3620000000000001</v>
       </c>
@@ -4679,7 +4679,7 @@
         <v>16.510000000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2">
       <c r="A35" s="4">
         <v>3.4329999999999998</v>
       </c>
@@ -4687,7 +4687,7 @@
         <v>17.010000000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2">
       <c r="A36" s="4">
         <v>3.5089999999999999</v>
       </c>
@@ -4695,7 +4695,7 @@
         <v>17.553999999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2">
       <c r="A37" s="4">
         <v>3.5710000000000002</v>
       </c>
@@ -4703,7 +4703,7 @@
         <v>18.007999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2">
       <c r="A38" s="4">
         <v>3.6379999999999999</v>
       </c>
@@ -4711,7 +4711,7 @@
         <v>18.510000000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2">
       <c r="A39" s="4">
         <v>3.7120000000000002</v>
       </c>
@@ -4719,7 +4719,7 @@
         <v>19.05</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2">
       <c r="A40" s="4">
         <v>3.7749999999999999</v>
       </c>
@@ -4727,7 +4727,7 @@
         <v>19.526</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2">
       <c r="A41" s="4">
         <v>3.84</v>
       </c>

--- a/LFK_Auswertung/raw_data/LFK_Messprotokolle.xlsx
+++ b/LFK_Auswertung/raw_data/LFK_Messprotokolle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Janjo/Library/Mobile Documents/iCloud~md~obsidian/Documents/ETH/PPC_Meister/ppc_skripts_reports/LFK_Auswertung/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F2B1F1D-EE8A-5045-B949-09EFEFC60EE2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9373F2F4-02D9-354B-B68B-AADBFFA88EB5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="3" xr2:uid="{7A720E7D-8133-ED4F-A360-5A7C09767869}"/>
+    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="5" xr2:uid="{7A720E7D-8133-ED4F-A360-5A7C09767869}"/>
   </bookViews>
   <sheets>
     <sheet name="H2O_deion." sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="H2O_reinst" sheetId="8" r:id="rId3"/>
     <sheet name="temperatur" sheetId="2" r:id="rId4"/>
     <sheet name="molar LFK_K2CO3" sheetId="3" r:id="rId5"/>
-    <sheet name="Konz. abhängig" sheetId="4" r:id="rId6"/>
+    <sheet name="molar" sheetId="4" r:id="rId6"/>
     <sheet name="LFK_titration" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>molar LFK</t>
-  </si>
-  <si>
-    <t>sqrt©</t>
   </si>
   <si>
     <t>k_mass</t>
@@ -90,22 +87,25 @@
     <t>kappa (microS/cm)</t>
   </si>
   <si>
-    <t>V (ml)</t>
-  </si>
-  <si>
-    <t>delta V (ml)</t>
-  </si>
-  <si>
     <t>c_na (M bzw. mol/L)</t>
-  </si>
-  <si>
-    <t>kappa (µS/cm)</t>
   </si>
   <si>
     <t>v_delta</t>
   </si>
   <si>
     <t>t</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sqrt(c) </t>
+  </si>
+  <si>
+    <t>kappa (uS/cm)</t>
+  </si>
+  <si>
+    <t>V (mL)</t>
+  </si>
+  <si>
+    <t>delta V (mL)</t>
   </si>
 </sst>
 </file>
@@ -115,7 +115,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2657,21 +2657,21 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="21"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5" style="1" customWidth="1"/>
     <col min="2" max="16384" width="15.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2.84</v>
       </c>
@@ -2679,7 +2679,7 @@
         <v>17.2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2.9</v>
       </c>
@@ -2687,7 +2687,7 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2.8</v>
       </c>
@@ -2706,21 +2706,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="21"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.5" style="1" customWidth="1"/>
     <col min="2" max="16384" width="15.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>289.5</v>
       </c>
@@ -2728,7 +2728,7 @@
         <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>281.10000000000002</v>
       </c>
@@ -2736,7 +2736,7 @@
         <v>17.7</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>278.5</v>
       </c>
@@ -2755,21 +2755,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="21"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.6640625" style="1" customWidth="1"/>
     <col min="2" max="16384" width="15.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2777,7 +2777,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1.2</v>
       </c>
@@ -2785,7 +2785,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0.97</v>
       </c>
@@ -2793,7 +2793,7 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
     </row>
   </sheetData>
@@ -2805,26 +2805,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6BA2F4E-A981-7947-A35A-D61C51A0BE4D}">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="21"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.83203125" style="1"/>
     <col min="2" max="2" width="18.33203125" style="1" customWidth="1"/>
     <col min="3" max="16384" width="15.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>50</v>
       </c>
@@ -2832,7 +2832,7 @@
         <v>30.15</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>49</v>
       </c>
@@ -2840,7 +2840,7 @@
         <v>29.69</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>48</v>
       </c>
@@ -2848,7 +2848,7 @@
         <v>29.28</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>47</v>
       </c>
@@ -2856,7 +2856,7 @@
         <v>28.84</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>46</v>
       </c>
@@ -2864,7 +2864,7 @@
         <v>28.43</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45</v>
       </c>
@@ -2872,7 +2872,7 @@
         <v>27.97</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44</v>
       </c>
@@ -2880,7 +2880,7 @@
         <v>27.55</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43</v>
       </c>
@@ -2888,7 +2888,7 @@
         <v>27.12</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>42</v>
       </c>
@@ -2896,7 +2896,7 @@
         <v>26.69</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>41</v>
       </c>
@@ -2904,7 +2904,7 @@
         <v>26.26</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>40</v>
       </c>
@@ -2912,7 +2912,7 @@
         <v>25.84</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>39</v>
       </c>
@@ -2920,7 +2920,7 @@
         <v>25.43</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>38</v>
       </c>
@@ -2928,7 +2928,7 @@
         <v>24.98</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>37</v>
       </c>
@@ -2936,7 +2936,7 @@
         <v>24.57</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>36</v>
       </c>
@@ -2944,7 +2944,7 @@
         <v>24.17</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>35</v>
       </c>
@@ -2952,7 +2952,7 @@
         <v>23.74</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>34</v>
       </c>
@@ -2960,7 +2960,7 @@
         <v>23.34</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>33</v>
       </c>
@@ -2968,7 +2968,7 @@
         <v>22.92</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>32</v>
       </c>
@@ -2976,7 +2976,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>31</v>
       </c>
@@ -2984,7 +2984,7 @@
         <v>22.1</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>30</v>
       </c>
@@ -2992,7 +2992,7 @@
         <v>21.67</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>29</v>
       </c>
@@ -3000,7 +3000,7 @@
         <v>21.28</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>28</v>
       </c>
@@ -3008,7 +3008,7 @@
         <v>20.86</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>27</v>
       </c>
@@ -3016,7 +3016,7 @@
         <v>20.46</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>26</v>
       </c>
@@ -3024,7 +3024,7 @@
         <v>20.07</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -3046,7 +3046,7 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="21"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="23.5" style="1" customWidth="1"/>
@@ -3059,41 +3059,41 @@
     <col min="10" max="16384" width="15.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1">
         <v>0.01</v>
@@ -3109,7 +3109,7 @@
         <v>18.8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G2" s="1">
         <v>0.01</v>
@@ -3125,9 +3125,9 @@
         <v>17.899999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1">
         <v>0.01</v>
@@ -3143,7 +3143,7 @@
         <v>18.399999999999999</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G3" s="1">
         <v>0.01</v>
@@ -3159,9 +3159,9 @@
         <v>17.899999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1">
         <v>0.01</v>
@@ -3177,7 +3177,7 @@
         <v>18.600000000000001</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G4" s="1">
         <v>0.01</v>
@@ -3202,43 +3202,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25837882-D691-9C40-A8A5-AE72F94D39C8}">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="21"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="15.83203125" style="1"/>
     <col min="3" max="3" width="23.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.83203125" style="1"/>
-    <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29" style="1" customWidth="1"/>
     <col min="6" max="16384" width="15.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>100</v>
       </c>
@@ -3252,7 +3252,7 @@
         <v>18.2</v>
       </c>
       <c r="E2" s="1">
-        <f>0.01*(B2/A2+B2)</f>
+        <f>0.01*(B2/A2)</f>
         <v>0</v>
       </c>
       <c r="F2" s="1">
@@ -3260,7 +3260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <f>$A$2+B3</f>
         <v>100.5</v>
@@ -3276,25 +3276,25 @@
         <v>18.399999999999999</v>
       </c>
       <c r="E3" s="1">
-        <f>0.01*(B3/$A$2+B3)</f>
-        <v>5.0499999999999998E-3</v>
+        <f t="shared" ref="E3:E42" si="0">0.01*(B3/A3)</f>
+        <v>4.9751243781094526E-5</v>
       </c>
       <c r="F3" s="1">
         <f>SQRT(E3)</f>
-        <v>7.1063352017759471E-2</v>
+        <v>7.0534561585859825E-3</v>
       </c>
       <c r="G3" s="1">
         <f>C3/E3</f>
-        <v>2972.2772277227723</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>301701</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <f t="shared" ref="A4:A42" si="0">$A$2+B4</f>
+        <f t="shared" ref="A4:A42" si="1">$A$2+B4</f>
         <v>101</v>
       </c>
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B42" si="1">B3+0.5</f>
+        <f t="shared" ref="B4:B42" si="2">B3+0.5</f>
         <v>1</v>
       </c>
       <c r="C4" s="1">
@@ -3304,25 +3304,25 @@
         <v>18.399999999999999</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E42" si="2">0.01*(B4/$A$2+B4)</f>
-        <v>1.01E-2</v>
+        <f t="shared" si="0"/>
+        <v>9.9009900990099017E-5</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" ref="F4:F42" si="3">SQRT(E4)</f>
-        <v>0.10049875621120891</v>
+        <v>9.9503719020998908E-3</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" ref="G4:G42" si="4">C4/E4</f>
-        <v>2693.0693069306931</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>274720</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>101.5</v>
       </c>
       <c r="B5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
       <c r="C5" s="1">
@@ -3332,25 +3332,25 @@
         <v>18.5</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="2"/>
-        <v>1.5149999999999999E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.4778325123152708E-4</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="3"/>
-        <v>0.1230853362509117</v>
+        <v>1.2156613477096616E-2</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" si="4"/>
-        <v>2600.660066006601</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>266606.66666666669</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>102</v>
       </c>
       <c r="B6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="C6" s="1">
@@ -3360,25 +3360,25 @@
         <v>18.5</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" si="2"/>
-        <v>2.0199999999999999E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.9607843137254901E-4</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="3"/>
-        <v>0.14212670403551894</v>
+        <v>1.4002800840280098E-2</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="4"/>
-        <v>2802.4752475247524</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>288711</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>102.5</v>
       </c>
       <c r="B7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
       <c r="C7" s="1">
@@ -3388,25 +3388,25 @@
         <v>18.600000000000001</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="2"/>
-        <v>2.5249999999999998E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.4390243902439027E-4</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="3"/>
-        <v>0.15890248582070704</v>
+        <v>1.5617376188860608E-2</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="4"/>
-        <v>2411.8811881188121</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>249689.99999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>103</v>
       </c>
       <c r="B8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C8" s="1">
@@ -3416,25 +3416,25 @@
         <v>18.600000000000001</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="2"/>
-        <v>3.0299999999999997E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.9126213592233012E-4</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="3"/>
-        <v>0.17406895185529209</v>
+        <v>1.706640371965723E-2</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="4"/>
-        <v>2364.3564356435645</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>245963.99999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>103.5</v>
       </c>
       <c r="B9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.5</v>
       </c>
       <c r="C9" s="1">
@@ -3444,25 +3444,25 @@
         <v>18.600000000000001</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="2"/>
-        <v>3.5349999999999999E-2</v>
+        <f t="shared" si="0"/>
+        <v>3.3816425120772943E-4</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="3"/>
-        <v>0.18801595676963165</v>
+        <v>1.8389242812245681E-2</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="4"/>
-        <v>2190.9476661951912</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>229030.71428571432</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>104</v>
       </c>
       <c r="B10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="C10" s="1">
@@ -3472,25 +3472,25 @@
         <v>18.7</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="2"/>
-        <v>4.0399999999999998E-2</v>
+        <f t="shared" si="0"/>
+        <v>3.8461538461538467E-4</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="3"/>
-        <v>0.20099751242241781</v>
+        <v>1.9611613513818404E-2</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="4"/>
-        <v>2249.7524752475247</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>236313.99999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>104.5</v>
       </c>
       <c r="B11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
       <c r="C11" s="1">
@@ -3500,25 +3500,25 @@
         <v>18.7</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="2"/>
-        <v>4.5449999999999997E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.3062200956937803E-4</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="3"/>
-        <v>0.21319005605327843</v>
+        <v>2.0751433915982241E-2</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" si="4"/>
-        <v>2228.8228822882288</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>235241.11111111109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>105</v>
       </c>
       <c r="B12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="C12" s="1">
@@ -3528,25 +3528,25 @@
         <v>18.7</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="2"/>
-        <v>5.0499999999999996E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.7619047619047619E-4</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="3"/>
-        <v>0.22472205054244232</v>
+        <v>2.1821789023599238E-2</v>
       </c>
       <c r="G12" s="1">
         <f t="shared" si="4"/>
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>233310</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>105.5</v>
       </c>
       <c r="B13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.5</v>
       </c>
       <c r="C13" s="1">
@@ -3556,25 +3556,25 @@
         <v>18.7</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="2"/>
-        <v>5.5549999999999995E-2</v>
+        <f t="shared" si="0"/>
+        <v>5.2132701421800951E-4</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" si="3"/>
-        <v>0.2356904749878535</v>
+        <v>2.28325866738311E-2</v>
       </c>
       <c r="G13" s="1">
         <f t="shared" si="4"/>
-        <v>2167.4167416741675</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>230949.09090909091</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>106</v>
       </c>
       <c r="B14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="C14" s="1">
@@ -3584,25 +3584,25 @@
         <v>18.8</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="2"/>
-        <v>6.0599999999999994E-2</v>
+        <f t="shared" si="0"/>
+        <v>5.6603773584905663E-4</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="3"/>
-        <v>0.2461706725018234</v>
+        <v>2.3791547571544325E-2</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" si="4"/>
-        <v>2143.5643564356437</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>229490</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>106.5</v>
       </c>
       <c r="B15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.5</v>
       </c>
       <c r="C15" s="1">
@@ -3612,25 +3612,25 @@
         <v>18.8</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="2"/>
-        <v>6.565E-2</v>
+        <f t="shared" si="0"/>
+        <v>6.1032863849765258E-4</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" si="3"/>
-        <v>0.25622255950637912</v>
+        <v>2.4704830266521819E-2</v>
       </c>
       <c r="G15" s="1">
         <f t="shared" si="4"/>
-        <v>2115.7654226961158</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>227582.30769230772</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>107</v>
       </c>
       <c r="B16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="C16" s="1">
@@ -3640,25 +3640,25 @@
         <v>18.8</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="2"/>
-        <v>7.0699999999999999E-2</v>
+        <f t="shared" si="0"/>
+        <v>6.5420560747663544E-4</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" si="3"/>
-        <v>0.2658947160061666</v>
+        <v>2.5577443333465434E-2</v>
       </c>
       <c r="G16" s="1">
         <f t="shared" si="4"/>
-        <v>2097.5954738330979</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>226687.1428571429</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>107.5</v>
       </c>
       <c r="B17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.5</v>
       </c>
       <c r="C17" s="1">
@@ -3668,25 +3668,25 @@
         <v>18.8</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="2"/>
-        <v>7.5749999999999998E-2</v>
+        <f t="shared" si="0"/>
+        <v>6.9767441860465117E-4</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" si="3"/>
-        <v>0.27522717889045767</v>
+        <v>2.6413527189768714E-2</v>
       </c>
       <c r="G17" s="1">
         <f t="shared" si="4"/>
-        <v>2077.8877887788781</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>225606.66666666666</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>108</v>
       </c>
       <c r="B18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="C18" s="1">
@@ -3696,25 +3696,25 @@
         <v>18.899999999999999</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="2"/>
-        <v>8.0799999999999997E-2</v>
+        <f t="shared" si="0"/>
+        <v>7.407407407407407E-4</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" si="3"/>
-        <v>0.28425340807103788</v>
+        <v>2.7216552697590869E-2</v>
       </c>
       <c r="G18" s="1">
         <f t="shared" si="4"/>
-        <v>2053.2178217821784</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>223965.00000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>108.5</v>
       </c>
       <c r="B19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.5</v>
       </c>
       <c r="C19" s="1">
@@ -3724,25 +3724,25 @@
         <v>18.899999999999999</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="2"/>
-        <v>8.585000000000001E-2</v>
+        <f t="shared" si="0"/>
+        <v>7.8341013824884793E-4</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" si="3"/>
-        <v>0.29300170647967227</v>
+        <v>2.7989464772461226E-2</v>
       </c>
       <c r="G19" s="1">
         <f t="shared" si="4"/>
-        <v>2029.1205591147345</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>222361.17647058822</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>109</v>
       </c>
       <c r="B20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="C20" s="1">
@@ -3752,25 +3752,25 @@
         <v>18.899999999999999</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="2"/>
-        <v>9.0899999999999995E-2</v>
+        <f t="shared" si="0"/>
+        <v>8.2568807339449544E-4</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" si="3"/>
-        <v>0.30149626863362672</v>
+        <v>2.8734788556634541E-2</v>
       </c>
       <c r="G20" s="1">
         <f t="shared" si="4"/>
-        <v>2011.0011001100113</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>221391.11111111112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>109.5</v>
       </c>
       <c r="B21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.5</v>
       </c>
       <c r="C21" s="1">
@@ -3780,25 +3780,25 @@
         <v>18.899999999999999</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" si="2"/>
-        <v>9.5950000000000008E-2</v>
+        <f t="shared" si="0"/>
+        <v>8.6757990867579904E-4</v>
       </c>
       <c r="F21" s="1">
         <f t="shared" si="3"/>
-        <v>0.30975797003467082</v>
+        <v>2.9454709448164636E-2</v>
       </c>
       <c r="G21" s="1">
         <f t="shared" si="4"/>
-        <v>1992.7045336112556</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>220383.15789473685</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>110</v>
       </c>
       <c r="B22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="C22" s="1">
@@ -3808,25 +3808,25 @@
         <v>19</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="2"/>
-        <v>0.10099999999999999</v>
+        <f t="shared" si="0"/>
+        <v>9.0909090909090909E-4</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" si="3"/>
-        <v>0.31780497164141408</v>
+        <v>3.0151134457776362E-2</v>
       </c>
       <c r="G22" s="1">
         <f t="shared" si="4"/>
-        <v>1979.2079207920794</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>219890</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>110.5</v>
       </c>
       <c r="B23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10.5</v>
       </c>
       <c r="C23" s="1">
@@ -3836,25 +3836,25 @@
         <v>19.2</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="2"/>
-        <v>0.10605000000000001</v>
+        <f t="shared" si="0"/>
+        <v>9.5022624434389134E-4</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" si="3"/>
-        <v>0.32565318975867563</v>
+        <v>3.0825739964255382E-2</v>
       </c>
       <c r="G23" s="1">
         <f t="shared" si="4"/>
-        <v>1972.6544082979724</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>220158.09523809524</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>111</v>
       </c>
       <c r="B24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="C24" s="1">
@@ -3864,25 +3864,25 @@
         <v>19.2</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="2"/>
-        <v>0.11109999999999999</v>
+        <f t="shared" si="0"/>
+        <v>9.9099099099099106E-4</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" si="3"/>
-        <v>0.33331666624997913</v>
+        <v>3.1480009386767836E-2</v>
       </c>
       <c r="G24" s="1">
         <f t="shared" si="4"/>
-        <v>1950.4950495049507</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>218669.99999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>111.5</v>
       </c>
       <c r="B25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.5</v>
       </c>
       <c r="C25" s="1">
@@ -3892,25 +3892,25 @@
         <v>19.2</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="2"/>
-        <v>0.11615</v>
+        <f t="shared" si="0"/>
+        <v>1.0313901345291481E-3</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" si="3"/>
-        <v>0.34080786375903949</v>
+        <v>3.2115263264204268E-2</v>
       </c>
       <c r="G25" s="1">
         <f t="shared" si="4"/>
-        <v>1938.01119242359</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>218249.13043478256</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>112</v>
       </c>
       <c r="B26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="C26" s="1">
@@ -3920,25 +3920,25 @@
         <v>19.2</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" si="2"/>
-        <v>0.12119999999999999</v>
+        <f t="shared" si="0"/>
+        <v>1.0714285714285715E-3</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" si="3"/>
-        <v>0.34813790371058417</v>
+        <v>3.2732683535398856E-2</v>
       </c>
       <c r="G26" s="1">
         <f t="shared" si="4"/>
-        <v>1917.4917491749177</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>216906.66666666666</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>112.5</v>
       </c>
       <c r="B27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.5</v>
       </c>
       <c r="C27" s="1">
@@ -3948,25 +3948,25 @@
         <v>19.3</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" si="2"/>
-        <v>0.12625</v>
+        <f t="shared" si="0"/>
+        <v>1.1111111111111111E-3</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" si="3"/>
-        <v>0.35531676008879737</v>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="G27" s="1">
         <f t="shared" si="4"/>
-        <v>1906.5346534653465</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>216630</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>113</v>
       </c>
       <c r="B28" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="C28" s="1">
@@ -3976,25 +3976,25 @@
         <v>19.3</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" si="2"/>
-        <v>0.1313</v>
+        <f t="shared" si="0"/>
+        <v>1.1504424778761063E-3</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" si="3"/>
-        <v>0.36235341863986875</v>
+        <v>3.3918173268560711E-2</v>
       </c>
       <c r="G28" s="1">
         <f t="shared" si="4"/>
-        <v>1895.6587966488958</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>216351.53846153844</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>113.5</v>
       </c>
       <c r="B29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13.5</v>
       </c>
       <c r="C29" s="1">
@@ -4004,25 +4004,25 @@
         <v>19.3</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" si="2"/>
-        <v>0.13635</v>
+        <f t="shared" si="0"/>
+        <v>1.1894273127753304E-3</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" si="3"/>
-        <v>0.36925600875273512</v>
+        <v>3.4488074935770628E-2</v>
       </c>
       <c r="G29" s="1">
         <f t="shared" si="4"/>
-        <v>1879.7213054638798</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>215481.85185185185</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>114</v>
       </c>
       <c r="B30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="C30" s="1">
@@ -4032,25 +4032,25 @@
         <v>19.3</v>
       </c>
       <c r="E30" s="1">
-        <f t="shared" si="2"/>
-        <v>0.1414</v>
+        <f t="shared" si="0"/>
+        <v>1.2280701754385965E-3</v>
       </c>
       <c r="F30" s="1">
         <f t="shared" si="3"/>
-        <v>0.3760319135392633</v>
+        <v>3.504383220252312E-2</v>
       </c>
       <c r="G30" s="1">
         <f t="shared" si="4"/>
-        <v>1868.4582743988683</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>215134.28571428571</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>114.5</v>
       </c>
       <c r="B31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14.5</v>
       </c>
       <c r="C31" s="1">
@@ -4060,25 +4060,25 @@
         <v>19.3</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" si="2"/>
-        <v>0.14645</v>
+        <f t="shared" si="0"/>
+        <v>1.2663755458515284E-3</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" si="3"/>
-        <v>0.38268786236304908</v>
+        <v>3.5586170710706265E-2</v>
       </c>
       <c r="G31" s="1">
         <f t="shared" si="4"/>
-        <v>1856.6063502902014</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>214707.24137931032</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>115</v>
       </c>
       <c r="B32" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="C32" s="1">
@@ -4088,25 +4088,25 @@
         <v>19.3</v>
       </c>
       <c r="E32" s="1">
-        <f t="shared" si="2"/>
-        <v>0.1515</v>
+        <f t="shared" si="0"/>
+        <v>1.3043478260869564E-3</v>
       </c>
       <c r="F32" s="1">
         <f t="shared" si="3"/>
-        <v>0.38923000912057126</v>
+        <v>3.6115755925730755E-2</v>
       </c>
       <c r="G32" s="1">
         <f t="shared" si="4"/>
-        <v>1842.2442244224424</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>213976.66666666672</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>115.5</v>
       </c>
       <c r="B33" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15.5</v>
       </c>
       <c r="C33" s="1">
@@ -4116,25 +4116,25 @@
         <v>19.399999999999999</v>
       </c>
       <c r="E33" s="1">
-        <f t="shared" si="2"/>
-        <v>0.15654999999999999</v>
+        <f t="shared" si="0"/>
+        <v>1.341991341991342E-3</v>
       </c>
       <c r="F33" s="1">
         <f t="shared" si="3"/>
-        <v>0.39566399886772613</v>
+        <v>3.6633199996606108E-2</v>
       </c>
       <c r="G33" s="1">
         <f t="shared" si="4"/>
-        <v>1830.0862344298946</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>213488.70967741936</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>116</v>
       </c>
       <c r="B34" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="C34" s="1">
@@ -4144,25 +4144,25 @@
         <v>19.399999999999999</v>
       </c>
       <c r="E34" s="1">
-        <f t="shared" si="2"/>
-        <v>0.16159999999999999</v>
+        <f t="shared" si="0"/>
+        <v>1.3793103448275863E-3</v>
       </c>
       <c r="F34" s="1">
         <f t="shared" si="3"/>
-        <v>0.40199502484483562</v>
+        <v>3.7139067635410375E-2</v>
       </c>
       <c r="G34" s="1">
         <f t="shared" si="4"/>
-        <v>1820.5445544554455</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>213294.99999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>116.5</v>
       </c>
       <c r="B35" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16.5</v>
       </c>
       <c r="C35" s="1">
@@ -4172,25 +4172,25 @@
         <v>19.399999999999999</v>
       </c>
       <c r="E35" s="1">
-        <f t="shared" si="2"/>
-        <v>0.16664999999999999</v>
+        <f t="shared" si="0"/>
+        <v>1.4163090128755365E-3</v>
       </c>
       <c r="F35" s="1">
         <f t="shared" si="3"/>
-        <v>0.40822787753900391</v>
+        <v>3.7633881182725981E-2</v>
       </c>
       <c r="G35" s="1">
         <f t="shared" si="4"/>
-        <v>1810.9810981098112</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>213089.09090909091</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>117</v>
       </c>
       <c r="B36" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="C36" s="1">
@@ -4200,25 +4200,25 @@
         <v>19.399999999999999</v>
       </c>
       <c r="E36" s="1">
-        <f t="shared" si="2"/>
-        <v>0.17170000000000002</v>
+        <f t="shared" si="0"/>
+        <v>1.4529914529914532E-3</v>
       </c>
       <c r="F36" s="1">
         <f t="shared" si="3"/>
-        <v>0.41436698710201325</v>
+        <v>3.8118124993124378E-2</v>
       </c>
       <c r="G36" s="1">
         <f t="shared" si="4"/>
-        <v>1797.3209085614444</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>212389.41176470587</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>117.5</v>
       </c>
       <c r="B37" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17.5</v>
       </c>
       <c r="C37" s="1">
@@ -4228,25 +4228,25 @@
         <v>19.399999999999999</v>
       </c>
       <c r="E37" s="1">
-        <f t="shared" si="2"/>
-        <v>0.17675000000000002</v>
+        <f t="shared" si="0"/>
+        <v>1.4893617021276596E-3</v>
       </c>
       <c r="F37" s="1">
         <f t="shared" si="3"/>
-        <v>0.42041646019155815</v>
+        <v>3.859224924939799E-2</v>
       </c>
       <c r="G37" s="1">
         <f t="shared" si="4"/>
-        <v>1787.8359264497876</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>212171.42857142855</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>118</v>
       </c>
       <c r="B38" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="C38" s="1">
@@ -4256,25 +4256,25 @@
         <v>19.399999999999999</v>
       </c>
       <c r="E38" s="1">
-        <f t="shared" si="2"/>
-        <v>0.18179999999999999</v>
+        <f t="shared" si="0"/>
+        <v>1.5254237288135596E-3</v>
       </c>
       <c r="F38" s="1">
         <f t="shared" si="3"/>
-        <v>0.42638011210655685</v>
+        <v>3.9056673294247161E-2</v>
       </c>
       <c r="G38" s="1">
         <f t="shared" si="4"/>
-        <v>1777.2277227722775</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>211809.99999999997</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>118.5</v>
       </c>
       <c r="B39" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18.5</v>
       </c>
       <c r="C39" s="1">
@@ -4284,25 +4284,25 @@
         <v>19.5</v>
       </c>
       <c r="E39" s="1">
-        <f t="shared" si="2"/>
-        <v>0.18684999999999999</v>
+        <f t="shared" si="0"/>
+        <v>1.5611814345991562E-3</v>
       </c>
       <c r="F39" s="1">
         <f t="shared" si="3"/>
-        <v>0.43226149493101973</v>
+        <v>3.9511788552268251E-2</v>
       </c>
       <c r="G39" s="1">
         <f t="shared" si="4"/>
-        <v>1770.4040674337705</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>211890.8108108108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>119</v>
       </c>
       <c r="B40" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="C40" s="1">
@@ -4312,25 +4312,25 @@
         <v>19.5</v>
       </c>
       <c r="E40" s="1">
-        <f t="shared" si="2"/>
-        <v>0.19190000000000002</v>
+        <f t="shared" si="0"/>
+        <v>1.5966386554621848E-3</v>
       </c>
       <c r="F40" s="1">
         <f t="shared" si="3"/>
-        <v>0.43806392227619023</v>
+        <v>3.9957961102415937E-2</v>
       </c>
       <c r="G40" s="1">
         <f t="shared" si="4"/>
-        <v>1755.0807712350181</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>210943.15789473685</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>119.5</v>
       </c>
       <c r="B41" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19.5</v>
       </c>
       <c r="C41" s="1">
@@ -4340,25 +4340,25 @@
         <v>19.5</v>
       </c>
       <c r="E41" s="1">
-        <f t="shared" si="2"/>
-        <v>0.19695000000000001</v>
+        <f t="shared" si="0"/>
+        <v>1.6317991631799164E-3</v>
       </c>
       <c r="F41" s="1">
         <f t="shared" si="3"/>
-        <v>0.44379049111038871</v>
+        <v>4.0395533950919826E-2</v>
       </c>
       <c r="G41" s="1">
         <f t="shared" si="4"/>
-        <v>1748.1594313277481</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>210994.10256410256</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="B42" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="C42" s="1">
@@ -4368,16 +4368,16 @@
         <v>19.5</v>
       </c>
       <c r="E42" s="1">
-        <f t="shared" si="2"/>
-        <v>0.20199999999999999</v>
+        <f t="shared" si="0"/>
+        <v>1.6666666666666666E-3</v>
       </c>
       <c r="F42" s="1">
         <f t="shared" si="3"/>
-        <v>0.44944410108488464</v>
+        <v>4.0824829046386298E-2</v>
       </c>
       <c r="G42" s="1">
         <f t="shared" si="4"/>
-        <v>1735.6435643564359</v>
+        <v>210360.00000000003</v>
       </c>
     </row>
   </sheetData>
@@ -4393,23 +4393,23 @@
       <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="21"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="15.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>2.2469999999999999</v>
       </c>
@@ -4420,7 +4420,7 @@
         <v>20.2</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2.266</v>
       </c>
@@ -4431,7 +4431,7 @@
         <v>20.2</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2.2490000000000001</v>
       </c>
@@ -4439,7 +4439,7 @@
         <v>1.048</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>2.254</v>
       </c>
@@ -4447,7 +4447,7 @@
         <v>1.742</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>2.2610000000000001</v>
       </c>
@@ -4455,7 +4455,7 @@
         <v>2.028</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>2.2599999999999998</v>
       </c>
@@ -4463,7 +4463,7 @@
         <v>2.4940000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>2.2650000000000001</v>
       </c>
@@ -4471,7 +4471,7 @@
         <v>2.996</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>2.262</v>
       </c>
@@ -4479,7 +4479,7 @@
         <v>3.492</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>2.2629999999999999</v>
       </c>
@@ -4487,7 +4487,7 @@
         <v>4.016</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>2.2639999999999998</v>
       </c>
@@ -4495,7 +4495,7 @@
         <v>4.5659999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>2.266</v>
       </c>
@@ -4503,7 +4503,7 @@
         <v>5.0540000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>2.2730000000000001</v>
       </c>
@@ -4511,7 +4511,7 @@
         <v>5.77</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>2.27</v>
       </c>
@@ -4519,7 +4519,7 @@
         <v>6.0259999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>2.2719999999999998</v>
       </c>
@@ -4527,7 +4527,7 @@
         <v>6.5460000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>2.2749999999999999</v>
       </c>
@@ -4535,7 +4535,7 @@
         <v>7.0119999999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>2.2759999999999998</v>
       </c>
@@ -4543,7 +4543,7 @@
         <v>8.0459999999999994</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>2.2839999999999998</v>
       </c>
@@ -4551,7 +4551,7 @@
         <v>8.5359999999999996</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>2.302</v>
       </c>
@@ -4559,7 +4559,7 @@
         <v>9.0239999999999991</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>2.3370000000000002</v>
       </c>
@@ -4567,7 +4567,7 @@
         <v>9.5359999999999996</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>2.3889999999999998</v>
       </c>
@@ -4575,7 +4575,7 @@
         <v>10.002000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>2.4630000000000001</v>
       </c>
@@ -4583,7 +4583,7 @@
         <v>10.53</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>2.5329999999999999</v>
       </c>
@@ -4591,7 +4591,7 @@
         <v>10.994</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>2.6219999999999999</v>
       </c>
@@ -4599,7 +4599,7 @@
         <v>11.561999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>2.6920000000000002</v>
       </c>
@@ -4607,7 +4607,7 @@
         <v>11.997999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>2.77</v>
       </c>
@@ -4615,7 +4615,7 @@
         <v>12.522</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>2.851</v>
       </c>
@@ -4623,7 +4623,7 @@
         <v>13.03</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>2.931</v>
       </c>
@@ -4631,7 +4631,7 @@
         <v>13.564</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>3.0019999999999998</v>
       </c>
@@ -4639,7 +4639,7 @@
         <v>14.032</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>3.081</v>
       </c>
@@ -4647,7 +4647,7 @@
         <v>14.56</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>3.1440000000000001</v>
       </c>
@@ -4655,7 +4655,7 @@
         <v>15.006</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>3.2370000000000001</v>
       </c>
@@ -4663,7 +4663,7 @@
         <v>15.561999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>3.302</v>
       </c>
@@ -4671,7 +4671,7 @@
         <v>16.052</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>3.3620000000000001</v>
       </c>
@@ -4679,7 +4679,7 @@
         <v>16.510000000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>3.4329999999999998</v>
       </c>
@@ -4687,7 +4687,7 @@
         <v>17.010000000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>3.5089999999999999</v>
       </c>
@@ -4695,7 +4695,7 @@
         <v>17.553999999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>3.5710000000000002</v>
       </c>
@@ -4703,7 +4703,7 @@
         <v>18.007999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>3.6379999999999999</v>
       </c>
@@ -4711,7 +4711,7 @@
         <v>18.510000000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>3.7120000000000002</v>
       </c>
@@ -4719,7 +4719,7 @@
         <v>19.05</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>3.7749999999999999</v>
       </c>
@@ -4727,7 +4727,7 @@
         <v>19.526</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>3.84</v>
       </c>

--- a/LFK_Auswertung/raw_data/LFK_Messprotokolle.xlsx
+++ b/LFK_Auswertung/raw_data/LFK_Messprotokolle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Janjo/Library/Mobile Documents/iCloud~md~obsidian/Documents/ETH/PPC_Meister/ppc_skripts_reports/LFK_Auswertung/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9373F2F4-02D9-354B-B68B-AADBFFA88EB5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B24B380F-642C-8B4F-BC6A-62B2892ED50B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="5" xr2:uid="{7A720E7D-8133-ED4F-A360-5A7C09767869}"/>
+    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="19700" activeTab="5" xr2:uid="{7A720E7D-8133-ED4F-A360-5A7C09767869}"/>
   </bookViews>
   <sheets>
     <sheet name="H2O_deion." sheetId="1" r:id="rId1"/>
@@ -3203,7 +3203,7 @@
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -4382,6 +4382,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
